--- a/cleaning_素材.xlsx
+++ b/cleaning_素材.xlsx
@@ -2775,8 +2775,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
